--- a/experiments/241009/report_Hy_mix5.xlsx
+++ b/experiments/241009/report_Hy_mix5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Mass</t>
   </si>
@@ -65,28 +65,73 @@
     <t xml:space="preserve">Hy</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Hexanol|Isohexanol|3-methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|4-Methyl-2-pentanol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031493|HMDB0059889|HMDB0062726|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0246515|HMDB0245993|HMDB0302446|HMDB0302442</t>
+    <t xml:space="preserve">Isohexanol|(±)-3-Methyl-1-pentanol|3-Hexanol|2-Hexanol|3-methyl-2-pentanol|4-Methyl-2-pentanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0059889|HMDB0033676|HMDB0031493|HMDB0061886|HMDB0062726|HMDB0246515|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
   </si>
   <si>
     <t xml:space="preserve">C7H16O</t>
   </si>
   <si>
-    <t xml:space="preserve">xi-3-Heptanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H26O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11b-Hydroxyandrost-4-ene-3,17-dione|Yucalexin B'11|2-Hydroxyestradiol-3-methyl ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0006773|HMDB0036696|HMDB0000380</t>
+    <t xml:space="preserve">(±)-2-Heptanol|4-methyl-1-hexanol|xi-3-Heptanol|1-Heptanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0033908|HMDB0303837|HMDB0031481|HMDB0031479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18H38O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octadecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0002350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H30O2|C15H30O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|4-Androstene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0257771|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0248415|HMDB0244754|HMDB0005849|HMDB0246370|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20H42O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachidyl alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H26O3|C15H26O6|C16H30O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Hydroxyandrost-4-ene-3,17-dione|tributyrylglycerol|11-Ketotestosterone|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7-Keto-dehydroepiandrosterone|19-Oxotestosterone|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0003955|HMDB0259168|HMDB0244364|HMDB0006773|HMDB0244360|HMDB0258073|HMDB0247266|HMDB0003959|HMDB0006771|HMDB0006774|HMDB0260174|HMDB0036696|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18H36O4|C21H32O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihydroxystearic acid|(3beta,5alpha)-3-Hydroxypregn-16-en-20-one|Pregnenolone|3-Hydroxypregn-5-en-20-one|3-Hydroxypregn-4-en-20-one|(9S,10S)-9,10-dihydroxyoctadecanoate|9,10-Dihydroxystearic acid|MG(15:0/0:0/0:0)|MG(0:0/15:0/0:0)|(+)-15,16-Dihydroxyoctadecanoic acid|MG(a-15:0/0:0/0:0)[rac]|MG(0:0/a-15:0/0:0)[rac]|MG(i-15:0/0:0/0:0)|MG(0:0/i-15:0/0:0)|Norbolethone|20alpha-Dihydroprogesterone|20-Hydroxypregn-4-en-3-one|hydroxypregn-4-en-3-one|Calusterone|Bolasterone|Ethyltestosterone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0302284|HMDB0034369|HMDB0000253|HMDB0244633|HMDB0245701|HMDB0059633|HMDB0302281|HMDB0011563|HMDB0011532|HMDB0031008|HMDB0072865|HMDB0072862|HMDB0072878|HMDB0072849|HMDB0006026|HMDB0003069|HMDB0245568|HMDB0253286|HMDB0004627|HMDB0006048|HMDB0006002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21H36O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a,17-dimethyl-5b-Androstane-3a,17b-diol|3a,20b-Pregnanediol|5alpha-Pregnane-3alpha,20alpha-diol|5beta-Pregnane-3alpha,20alpha-diol|Pregnanediol|1-Hydroxy-2,12,15-heneicosatrien-4-one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0006013|HMDB0002156|HMDB0060409|HMDB0246874|HMDB0004025|HMDB0036741</t>
   </si>
 </sst>
 </file>
@@ -566,15 +611,21 @@
       <c r="B4" t="n">
         <v>733.51300000002</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" t="n">
         <v>4102.9456100077</v>
       </c>
@@ -607,15 +658,21 @@
       <c r="B5" t="n">
         <v>576.70900000002</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" t="n">
         <v>13937.8863357596</v>
       </c>
@@ -648,15 +705,21 @@
       <c r="B6" t="n">
         <v>769.707</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
       <c r="H6" t="n">
         <v>5593.89101142708</v>
       </c>
@@ -690,7 +753,7 @@
         <v>447.64900000002</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -699,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>8943.20214694762</v>
@@ -736,15 +799,21 @@
       <c r="B8" t="n">
         <v>615.186</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" t="n">
         <v>4655.92742790019</v>
       </c>
@@ -777,15 +846,21 @@
       <c r="B9" t="n">
         <v>582.83299999998</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" t="n">
         <v>11018.5119596149</v>
       </c>

--- a/experiments/241009/report_Hy_mix5.xlsx
+++ b/experiments/241009/report_Hy_mix5.xlsx
@@ -1,151 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fudan\Projects\2024\MultichannelR\Progress\build_package\MultichannelR\experiments\241009\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7935B-5016-4F62-84FD-7F2F9671DCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TagNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isohexanol|(±)-3-Methyl-1-pentanol|3-Hexanol|2-Hexanol|3-methyl-2-pentanol|4-Methyl-2-pentanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0059889|HMDB0033676|HMDB0031493|HMDB0061886|HMDB0062726|HMDB0246515|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7H16O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(±)-2-Heptanol|4-methyl-1-hexanol|xi-3-Heptanol|1-Heptanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0033908|HMDB0303837|HMDB0031481|HMDB0031479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18H38O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octadecanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0002350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H30O2|C15H30O5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|4-Androstene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0257771|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0248415|HMDB0244754|HMDB0005849|HMDB0246370|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20H42O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachidyl alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0011619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H26O3|C15H26O6|C16H30O5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-Hydroxyandrost-4-ene-3,17-dione|tributyrylglycerol|11-Ketotestosterone|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7-Keto-dehydroepiandrosterone|19-Oxotestosterone|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0003955|HMDB0259168|HMDB0244364|HMDB0006773|HMDB0244360|HMDB0258073|HMDB0247266|HMDB0003959|HMDB0006771|HMDB0006774|HMDB0260174|HMDB0036696|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18H36O4|C21H32O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dihydroxystearic acid|(3beta,5alpha)-3-Hydroxypregn-16-en-20-one|Pregnenolone|3-Hydroxypregn-5-en-20-one|3-Hydroxypregn-4-en-20-one|(9S,10S)-9,10-dihydroxyoctadecanoate|9,10-Dihydroxystearic acid|MG(15:0/0:0/0:0)|MG(0:0/15:0/0:0)|(+)-15,16-Dihydroxyoctadecanoic acid|MG(a-15:0/0:0/0:0)[rac]|MG(0:0/a-15:0/0:0)[rac]|MG(i-15:0/0:0/0:0)|MG(0:0/i-15:0/0:0)|Norbolethone|20alpha-Dihydroprogesterone|20-Hydroxypregn-4-en-3-one|hydroxypregn-4-en-3-one|Calusterone|Bolasterone|Ethyltestosterone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0302284|HMDB0034369|HMDB0000253|HMDB0244633|HMDB0245701|HMDB0059633|HMDB0302281|HMDB0011563|HMDB0011532|HMDB0031008|HMDB0072865|HMDB0072862|HMDB0072878|HMDB0072849|HMDB0006026|HMDB0003069|HMDB0245568|HMDB0253286|HMDB0004627|HMDB0006048|HMDB0006002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21H36O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a,17-dimethyl-5b-Androstane-3a,17b-diol|3a,20b-Pregnanediol|5alpha-Pregnane-3alpha,20alpha-diol|5beta-Pregnane-3alpha,20alpha-diol|Pregnanediol|1-Hydroxy-2,12,15-heneicosatrien-4-one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0006013|HMDB0002156|HMDB0060409|HMDB0246874|HMDB0004025|HMDB0036741</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>TagNumber</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>Hy</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>HMDB0000108</t>
+  </si>
+  <si>
+    <t>C6H14O</t>
+  </si>
+  <si>
+    <t>Isohexanol|(±)-3-Methyl-1-pentanol|3-Hexanol|2-Hexanol|3-methyl-2-pentanol|4-Methyl-2-pentanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0059889|HMDB0033676|HMDB0031493|HMDB0061886|HMDB0062726|HMDB0246515|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>C7H16O</t>
+  </si>
+  <si>
+    <t>(±)-2-Heptanol|4-methyl-1-hexanol|xi-3-Heptanol|1-Heptanol</t>
+  </si>
+  <si>
+    <t>HMDB0033908|HMDB0303837|HMDB0031481|HMDB0031479</t>
+  </si>
+  <si>
+    <t>C16H30O3</t>
+  </si>
+  <si>
+    <t>2-Hydroxydodecyl methacrylate</t>
+  </si>
+  <si>
+    <t>HMDB0245155</t>
+  </si>
+  <si>
+    <t>C18H38O</t>
+  </si>
+  <si>
+    <t>Octadecanol</t>
+  </si>
+  <si>
+    <t>HMDB0002350</t>
+  </si>
+  <si>
+    <t>C19H28O2|C18H24O3|C15H28O5</t>
+  </si>
+  <si>
+    <t>(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|7A-Methyl-19-nortestosterone|4-Hydroxyestradiol|4-hydroxystradiol|2-Hydroxyestradiol|1,3,5[10]-Estratriene-2,3-17 beta-triol|Estriol|16b-Hydroxyestradiol|17-Epiestriol|16,17-Epiestriol|Dehydroepiandrosterone|Dehydroandrosterone|4-Dihydroboldenone|Testosterone|Epitestosterone|Testosterone-d3|Normethandrone|7alpha-hydroxyestradiol|6-Hydroxypentadecanedioic acid</t>
+  </si>
+  <si>
+    <t>HMDB0260175|HMDB0253192|HMDB0005896|HMDB0060999|HMDB0000338|HMDB0244190|HMDB0000153|HMDB0000347|HMDB0000356|HMDB0000431|HMDB0000077|HMDB0005962|HMDB0006035|HMDB0000234|HMDB0000628|HMDB0242698|HMDB0255746|HMDB0062741|HMDB0031885</t>
+  </si>
+  <si>
+    <t>C16H32O4|C19H28O2|C20H32O|C15H28O5</t>
+  </si>
+  <si>
+    <t>MG(0:0/13:0/0:0)|MG(13:0/0:0/0:0)|Dehydroepiandrosterone|Dehydroandrosterone|7A-Methyl-19-nortestosterone|4-Dihydroboldenone|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|Testosterone|Epitestosterone|(S)-10,16-Dihydroxyhexadecanoic acid|Testosterone-d3|Normethandrone|MG(a-13:0/0:0/0:0)[rac]|MG(0:0/a-13:0/0:0)[rac]|MG(0:0/i-13:0/0:0)|Candol B|ent-16-Kauren-19-ol|All-trans-13,14-dihydroretinol|Abietinol|abieta-7,13-dien-18-ol|taxa-4(20),11-dien-5alpha-ol|6-Hydroxypentadecanedioic acid|Ethylestrenol</t>
+  </si>
+  <si>
+    <t>HMDB0072861|HMDB0072845|HMDB0000077|HMDB0005962|HMDB0253192|HMDB0006035|HMDB0260175|HMDB0000234|HMDB0000628|HMDB0037798|HMDB0242698|HMDB0255746|HMDB0072841|HMDB0072843|HMDB0072870|HMDB0036727|HMDB0303568|HMDB0011618|HMDB0034736|HMDB0304253|HMDB0304494|HMDB0031885|HMDB0252076</t>
+  </si>
+  <si>
+    <t>C19H30O2|C20H34O|C15H30O5</t>
+  </si>
+  <si>
+    <t>(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|4-Androstene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|8alpha-13(16),14-Labdadien-8-ol|(E,E,E)-Geranylgeranyl alcohol|18-Deoxysagittarol|Manool|(ent-16alpha)-16-Kauranol|ent-Kauran-16-beta-ol|Serratol|(3S,6E,10E)-1,6,10,14-Phytatetraen-3-ol|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t>HMDB0257771|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0248415|HMDB0244754|HMDB0005849|HMDB0246370|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0035276|HMDB0247803|HMDB0036834|HMDB0302943|HMDB0036723|HMDB0302663|HMDB0039827|HMDB0035083|HMDB0040168</t>
+  </si>
+  <si>
+    <t>C19H32O2|C20H36O</t>
+  </si>
+  <si>
+    <t>3beta,17alpha-Dihydroxy-5alpha-androstane|5alpha-Androstane-3alpha,17alpha-diol|5alpha-Androstane-3beta,17beta-diol|Androstanediol|Etiocholanediol|Dihydroandrosterone|3b,17b-Dihydroxyetiocholane|3a,17a-Dihydroxy-5b-androstane|Androstan-3alpha,17beta-diol|(17S)-10,13-Dimethyl-2,3,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydro-1H-cyclopenta[a]phenanthrene-3,17-diol|Hydroxysteroid|Geranylcitronellol</t>
+  </si>
+  <si>
+    <t>HMDB0000412|HMDB0000458|HMDB0000493|HMDB0000495|HMDB0000551|HMDB0000554|HMDB0000369|HMDB0000383|HMDB0060437|HMDB0242300|HMDB0253293|HMDB0032147</t>
+  </si>
+  <si>
+    <t>C20H42O</t>
+  </si>
+  <si>
+    <t>Arachidyl alcohol</t>
+  </si>
+  <si>
+    <t>HMDB0011619</t>
+  </si>
+  <si>
+    <t>C19H26O3|C15H26O6|C16H30O5</t>
+  </si>
+  <si>
+    <t>19-Hydroxyandrost-4-ene-3,17-dione|tributyrylglycerol|11-Ketotestosterone|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7-Keto-dehydroepiandrosterone|19-Oxotestosterone|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
+  </si>
+  <si>
+    <t>HMDB0003955|HMDB0259168|HMDB0244364|HMDB0006773|HMDB0244360|HMDB0258073|HMDB0247266|HMDB0003959|HMDB0006771|HMDB0006774|HMDB0260174|HMDB0036696|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
+  </si>
+  <si>
+    <t>C18H36O4|C21H32O2</t>
+  </si>
+  <si>
+    <t>Dihydroxystearic acid|(3beta,5alpha)-3-Hydroxypregn-16-en-20-one|Pregnenolone|3-Hydroxypregn-5-en-20-one|3-Hydroxypregn-4-en-20-one|(9S,10S)-9,10-dihydroxyoctadecanoate|9,10-Dihydroxystearic acid|MG(15:0/0:0/0:0)|MG(0:0/15:0/0:0)|(+)-15,16-Dihydroxyoctadecanoic acid|MG(a-15:0/0:0/0:0)[rac]|MG(0:0/a-15:0/0:0)[rac]|MG(i-15:0/0:0/0:0)|MG(0:0/i-15:0/0:0)|Norbolethone|20alpha-Dihydroprogesterone|20-Hydroxypregn-4-en-3-one|hydroxypregn-4-en-3-one|Calusterone|Bolasterone|Ethyltestosterone</t>
+  </si>
+  <si>
+    <t>HMDB0302284|HMDB0034369|HMDB0000253|HMDB0244633|HMDB0245701|HMDB0059633|HMDB0302281|HMDB0011563|HMDB0011532|HMDB0031008|HMDB0072865|HMDB0072862|HMDB0072878|HMDB0072849|HMDB0006026|HMDB0003069|HMDB0245568|HMDB0253286|HMDB0004627|HMDB0006048|HMDB0006002</t>
+  </si>
+  <si>
+    <t>C21H36O2</t>
+  </si>
+  <si>
+    <t>7a,17-dimethyl-5b-Androstane-3a,17b-diol|3a,20b-Pregnanediol|5alpha-Pregnane-3alpha,20alpha-diol|5beta-Pregnane-3alpha,20alpha-diol|Pregnanediol|1-Hydroxy-2,12,15-heneicosatrien-4-one</t>
+  </si>
+  <si>
+    <t>HMDB0006013|HMDB0002156|HMDB0060409|HMDB0246874|HMDB0004025|HMDB0036741</t>
+  </si>
+  <si>
+    <t>C19H38O4|C20H42O3</t>
+  </si>
+  <si>
+    <t>MG(16:0/0:0/0:0)|3-Palmitoyl-sn-glycerol|MG(0:0/16:0/0:0)|MG(i-16:0/0:0/0:0)|MG(0:0/i-16:0/0:0)|Phytantriol</t>
+  </si>
+  <si>
+    <t>HMDB0011564|HMDB0245964|HMDB0011533|HMDB0072844|HMDB0072873|HMDB0256517</t>
+  </si>
+  <si>
+    <t>C18H36O5|C20H30NO3|C21H32O3|C22H36O2|C17H28N6O</t>
+  </si>
+  <si>
+    <t>9,10,13-Trihydroxystearic acid|Ipratropium bromide|(8S,9S,10R,13S,14S,17S)-17-(1,1-Dihydroxyethyl)-10,13-dimethyl-1,2,6,7,8,9,11,12,14,15,16,17-dodecahydrocyclopenta[a]phenanthren-3-one|Floionolic acid|oxymetholone|17a-Hydroxypregnenolone|3,17-Dihydroxypregn-5-en-20-one|7alpha-Hydroxypregnenolone|5alpha-Dihydrodeoxycorticosterone|5beta-dihydrodeoxycorticosterone|(5R,8R,9S,10S,13S,14S,17S)-17-(2-Hydroxyacetyl)-10,13-dimethyl-1,2,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydrocyclopenta[a]phenanthren-3-one|Dihydroxy-4-pregnen-3-one|Alfaxalone|Ganaxolone|21-Hydroxypregnenolone|16-a-Hydroxypregnenolone|16-Hydroxypregnenolone|17alpha,20alpha-Dihydroxypregn-4-en-3-one|(20R)-17,20-Dihydroxypregn-4-en-3-one|Trihydroxystearic acid|(15alpha,20R)-15,20-Dihydroxypregn-4-en-3-one|Ethanol, 2-(pentyl(5-(1-piperidinyl)(1,2,4)triazolo(1,5-a)pyrimidin-7-yl)amino)-|1-Hydroxy-1-phenyl-3-hexadecanone|3-Hydroxy-1-phenyl-1-hexadecanone</t>
+  </si>
+  <si>
+    <t>HMDB0030935|HMDB0014476|HMDB0260195|HMDB0034295|HMDB0256016|HMDB0000363|HMDB0245990|HMDB0060424|HMDB0060407|HMDB0062609|HMDB0247838|HMDB0251339|HMDB0248256|HMDB0252627|HMDB0004026|HMDB0000315|HMDB0244724|HMDB0011653|HMDB0242496|HMDB0302290|HMDB0033918|HMDB0259700|HMDB0035676|HMDB0035677</t>
+  </si>
+  <si>
+    <t>C25H42O|C21H42O4</t>
+  </si>
+  <si>
+    <t>Nymphayol|1-Stearoylglycerol|MG(18:0/0:0/0:0)|MG(0:0/18:0/0:0)|MG(i-18:0/0:0/0:0)|MG(0:0/i-18:0/0:0)</t>
+  </si>
+  <si>
+    <t>HMDB0255827|HMDB0244009|HMDB0011131|HMDB0011535|HMDB0072842|HMDB0072877</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,13 +260,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,14 +558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,12 +614,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>102.109350635901</v>
-      </c>
-      <c r="B2" t="n">
-        <v>494.97799999998</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>46.045434752895197</v>
+      </c>
+      <c r="B2">
+        <v>356.42800000002001</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -523,7 +627,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -532,37 +636,37 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="n">
-        <v>10226.2786242548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8321.37757615209</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9383.81111348495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10853.2380828176</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10443.8411657104</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9599.38041426402</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.110839729687746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.129160603453667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>116.125470056864</v>
-      </c>
-      <c r="B3" t="n">
-        <v>525.531</v>
+      <c r="H2">
+        <v>2932.1300215399901</v>
+      </c>
+      <c r="I2">
+        <v>2560.5235364656301</v>
+      </c>
+      <c r="J2">
+        <v>2848.5895414505499</v>
+      </c>
+      <c r="K2">
+        <v>3122.5275635919002</v>
+      </c>
+      <c r="L2">
+        <v>3617.1784800989399</v>
+      </c>
+      <c r="M2">
+        <v>2754.98156480434</v>
+      </c>
+      <c r="N2">
+        <v>0.13668310694045199</v>
+      </c>
+      <c r="O2">
+        <v>0.160628582912341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>102.109413962061</v>
+      </c>
+      <c r="B3">
+        <v>494.21699999999998</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -570,7 +674,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -579,37 +683,37 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
-        <v>12662.3016656755</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10422.7903002337</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12256.174928643</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13174.0598123555</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13346.1821806104</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13335.1582670706</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0961653382380667</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.124899783047035</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>270.29897758937</v>
-      </c>
-      <c r="B4" t="n">
-        <v>733.51300000002</v>
+      <c r="H3">
+        <v>9521.4496669334403</v>
+      </c>
+      <c r="I3">
+        <v>7010.9099443918203</v>
+      </c>
+      <c r="J3">
+        <v>8101.9041817827801</v>
+      </c>
+      <c r="K3">
+        <v>9259.0227217211705</v>
+      </c>
+      <c r="L3">
+        <v>8933.0567230482793</v>
+      </c>
+      <c r="M3">
+        <v>8249.5036708552798</v>
+      </c>
+      <c r="N3">
+        <v>0.13347338171099399</v>
+      </c>
+      <c r="O3">
+        <v>0.159486172348662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>116.125524161307</v>
+      </c>
+      <c r="B4">
+        <v>524.76700000001995</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -617,7 +721,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -626,37 +730,37 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
-        <v>4102.9456100077</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3778.10365052575</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4285.25911168286</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4147.20284665055</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3927.8445622757</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4054.35958215094</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0533703182717998</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0614923403816642</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>290.230842475887</v>
-      </c>
-      <c r="B5" t="n">
-        <v>576.70900000002</v>
+      <c r="H4">
+        <v>12032.6357137378</v>
+      </c>
+      <c r="I4">
+        <v>9216.4967505502791</v>
+      </c>
+      <c r="J4">
+        <v>10890.4325405989</v>
+      </c>
+      <c r="K4">
+        <v>12156.052856750301</v>
+      </c>
+      <c r="L4">
+        <v>12171.793826901499</v>
+      </c>
+      <c r="M4">
+        <v>11590.5175930023</v>
+      </c>
+      <c r="N4">
+        <v>0.112222702580448</v>
+      </c>
+      <c r="O4">
+        <v>0.14595127075112599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>270.22595978219402</v>
+      </c>
+      <c r="B5">
+        <v>557.58100000002003</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -664,7 +768,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -673,37 +777,34 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="n">
-        <v>13937.8863357596</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12707.3150860128</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14361.0530448211</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14042.4198818536</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14104.2799679619</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8729.50738513663</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.228123557753577</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.343774256636629</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>298.327346041869</v>
-      </c>
-      <c r="B6" t="n">
-        <v>769.707</v>
+      <c r="H5">
+        <v>1933.39412774576</v>
+      </c>
+      <c r="I5">
+        <v>3250.3886156488202</v>
+      </c>
+      <c r="J5">
+        <v>1310.37611326245</v>
+      </c>
+      <c r="L5">
+        <v>1769.03445147105</v>
+      </c>
+      <c r="M5">
+        <v>2089.1228164046402</v>
+      </c>
+      <c r="N5">
+        <v>0.47070752963386198</v>
+      </c>
+      <c r="O5">
+        <v>0.619365125525838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>270.298753331211</v>
+      </c>
+      <c r="B6">
+        <v>732.75400000002003</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -711,7 +812,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
@@ -720,37 +821,37 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="n">
-        <v>5593.89101142708</v>
-      </c>
-      <c r="I6" t="n">
-        <v>148533.481434003</v>
-      </c>
-      <c r="J6" t="n">
-        <v>152554.416187457</v>
-      </c>
-      <c r="K6" t="n">
-        <v>177406.352119191</v>
-      </c>
-      <c r="L6" t="n">
-        <v>157040.255537099</v>
-      </c>
-      <c r="M6" t="n">
-        <v>167506.79526682</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.37939028038021</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.562847446355337</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>302.191824509802</v>
-      </c>
-      <c r="B7" t="n">
-        <v>447.64900000002</v>
+      <c r="H6">
+        <v>3766.5291893788999</v>
+      </c>
+      <c r="I6">
+        <v>3558.6172436020402</v>
+      </c>
+      <c r="J6">
+        <v>4027.7029674231098</v>
+      </c>
+      <c r="K6">
+        <v>3953.6583469991701</v>
+      </c>
+      <c r="L6">
+        <v>3737.20761769928</v>
+      </c>
+      <c r="M6">
+        <v>3649.88947707548</v>
+      </c>
+      <c r="N6">
+        <v>5.7641333692553698E-2</v>
+      </c>
+      <c r="O6">
+        <v>6.6009711513319094E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>288.18891236900299</v>
+      </c>
+      <c r="B7">
+        <v>737.31899999999996</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -758,8 +859,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -767,37 +868,37 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="n">
-        <v>8943.20214694762</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7567.63968203113</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7718.99016625559</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8351.06968008728</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8435.6470396368</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9926.86210144846</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.115103481535916</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.132462462300392</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>316.247798446926</v>
-      </c>
-      <c r="B8" t="n">
-        <v>615.186</v>
+      <c r="H7">
+        <v>1168.4673081404201</v>
+      </c>
+      <c r="I7">
+        <v>986.67404815097404</v>
+      </c>
+      <c r="J7">
+        <v>820.60274485453601</v>
+      </c>
+      <c r="K7">
+        <v>1248.97412141935</v>
+      </c>
+      <c r="L7">
+        <v>1237.15538079463</v>
+      </c>
+      <c r="M7">
+        <v>899.51172293657999</v>
+      </c>
+      <c r="N7">
+        <v>0.21864809414088901</v>
+      </c>
+      <c r="O7">
+        <v>0.255127969815514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>288.21543212566502</v>
+      </c>
+      <c r="B8">
+        <v>572.10299999999995</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -805,7 +906,7 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -814,37 +915,34 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="n">
-        <v>4655.92742790019</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4201.46251018452</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4918.69740065734</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5505.74558405629</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5317.51745537659</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5368.94259931886</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.114610164477476</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.133224961840257</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>320.283394722088</v>
-      </c>
-      <c r="B9" t="n">
-        <v>582.83299999998</v>
+      <c r="H8">
+        <v>4409.5589741327703</v>
+      </c>
+      <c r="I8">
+        <v>4472.4490125496404</v>
+      </c>
+      <c r="J8">
+        <v>4415.9105264938798</v>
+      </c>
+      <c r="L8">
+        <v>4422.6629085150598</v>
+      </c>
+      <c r="M8">
+        <v>4120.9495055106499</v>
+      </c>
+      <c r="N8">
+        <v>3.4417104368066102E-2</v>
+      </c>
+      <c r="O8">
+        <v>4.8130313932497303E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>290.23118175689098</v>
+      </c>
+      <c r="B9">
+        <v>576.70900000001996</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -852,7 +950,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -861,33 +959,410 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="n">
-        <v>11018.5119596149</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8783.90480975367</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9580.1209693017</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10360.8482450456</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10217.0227048157</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9625.46209343603</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.096569130886183</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.11407026597549</v>
+      <c r="H9">
+        <v>8962.4720332450397</v>
+      </c>
+      <c r="I9">
+        <v>7967.95563059694</v>
+      </c>
+      <c r="J9">
+        <v>13263.718206834001</v>
+      </c>
+      <c r="K9">
+        <v>9300.4913945900098</v>
+      </c>
+      <c r="L9">
+        <v>9257.4731744110595</v>
+      </c>
+      <c r="M9">
+        <v>8193.6152894942006</v>
+      </c>
+      <c r="N9">
+        <v>0.204518582167874</v>
+      </c>
+      <c r="O9">
+        <v>0.27311526522104401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>292.26050613580202</v>
+      </c>
+      <c r="B10">
+        <v>533.19700000002001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>2518.7346039931299</v>
+      </c>
+      <c r="I10">
+        <v>637.60674925773606</v>
+      </c>
+      <c r="J10">
+        <v>2162.5040860169902</v>
+      </c>
+      <c r="K10">
+        <v>727.02830587963604</v>
+      </c>
+      <c r="L10">
+        <v>2150.9332648436898</v>
+      </c>
+      <c r="M10">
+        <v>2122.8048603519401</v>
+      </c>
+      <c r="N10">
+        <v>0.76663987850181403</v>
+      </c>
+      <c r="O10">
+        <v>1.1870187435472801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>298.33054034635597</v>
+      </c>
+      <c r="B11">
+        <v>753.29500000001997</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>148531.88937256299</v>
+      </c>
+      <c r="I11">
+        <v>133082.681282287</v>
+      </c>
+      <c r="J11">
+        <v>154479.24402868899</v>
+      </c>
+      <c r="K11">
+        <v>159542.48063485901</v>
+      </c>
+      <c r="L11">
+        <v>157600.558496082</v>
+      </c>
+      <c r="M11">
+        <v>149850.383266135</v>
+      </c>
+      <c r="N11">
+        <v>7.1527570484913996E-2</v>
+      </c>
+      <c r="O11">
+        <v>8.7896202572304905E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>302.19334926716198</v>
+      </c>
+      <c r="B12">
+        <v>447.64900000002001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>8552.7367663715504</v>
+      </c>
+      <c r="I12">
+        <v>6572.0790962340398</v>
+      </c>
+      <c r="J12">
+        <v>7366.4700442319499</v>
+      </c>
+      <c r="K12">
+        <v>7637.3402557590098</v>
+      </c>
+      <c r="L12">
+        <v>7676.2901568430598</v>
+      </c>
+      <c r="M12">
+        <v>9253.1676416194496</v>
+      </c>
+      <c r="N12">
+        <v>0.13885954496004699</v>
+      </c>
+      <c r="O12">
+        <v>0.16117131374562099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>316.24792405678301</v>
+      </c>
+      <c r="B13">
+        <v>614.44300000001999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <v>4352.6081540466203</v>
+      </c>
+      <c r="I13">
+        <v>3946.6231732982201</v>
+      </c>
+      <c r="J13">
+        <v>4521.6397933275102</v>
+      </c>
+      <c r="K13">
+        <v>4777.7054206967396</v>
+      </c>
+      <c r="L13">
+        <v>4712.4507485654703</v>
+      </c>
+      <c r="M13">
+        <v>4779.6591525583199</v>
+      </c>
+      <c r="N13">
+        <v>8.0616048760177805E-2</v>
+      </c>
+      <c r="O13">
+        <v>9.8231956839930801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>320.281848129889</v>
+      </c>
+      <c r="B14">
+        <v>582.06600000000003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>10117.676504688099</v>
+      </c>
+      <c r="I14">
+        <v>8296.1243465729804</v>
+      </c>
+      <c r="J14">
+        <v>8816.7502071168892</v>
+      </c>
+      <c r="K14">
+        <v>9370.3827019477703</v>
+      </c>
+      <c r="L14">
+        <v>9506.7000250396704</v>
+      </c>
+      <c r="M14">
+        <v>8780.8834206611009</v>
+      </c>
+      <c r="N14">
+        <v>8.7966011835200406E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.103234726159708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>330.28551029041699</v>
+      </c>
+      <c r="B15">
+        <v>652.18000000001996</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>1542.5400821753401</v>
+      </c>
+      <c r="I15">
+        <v>1088.11284231216</v>
+      </c>
+      <c r="J15">
+        <v>1657.5230035599</v>
+      </c>
+      <c r="K15">
+        <v>1910.2983886485599</v>
+      </c>
+      <c r="L15">
+        <v>1899.31297715296</v>
+      </c>
+      <c r="M15">
+        <v>1739.3868697328401</v>
+      </c>
+      <c r="N15">
+        <v>0.20391073593841999</v>
+      </c>
+      <c r="O15">
+        <v>0.25090756178146401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>332.24233079420702</v>
+      </c>
+      <c r="B16">
+        <v>563.69299999997997</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>3192.1672765164799</v>
+      </c>
+      <c r="I16">
+        <v>2610.68451460713</v>
+      </c>
+      <c r="J16">
+        <v>3186.00384996617</v>
+      </c>
+      <c r="K16">
+        <v>3084.05471790514</v>
+      </c>
+      <c r="L16">
+        <v>3256.6044356102502</v>
+      </c>
+      <c r="M16">
+        <v>3258.9155899513999</v>
+      </c>
+      <c r="N16">
+        <v>8.1051155360645596E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.113863950251578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>358.31643891212298</v>
+      </c>
+      <c r="B17">
+        <v>680.53099999998005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>1317.24829448282</v>
+      </c>
+      <c r="I17">
+        <v>1031.01648587964</v>
+      </c>
+      <c r="J17">
+        <v>1496.6715074674701</v>
+      </c>
+      <c r="K17">
+        <v>1291.0973364013701</v>
+      </c>
+      <c r="L17">
+        <v>1775.0736497395301</v>
+      </c>
+      <c r="M17">
+        <v>1500.60250925284</v>
+      </c>
+      <c r="N17">
+        <v>0.197092673687456</v>
+      </c>
+      <c r="O17">
+        <v>0.22532338164820701</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>